--- a/Económico-laboral/INE_tabulado_cgt_sexo_regional (1).xlsx
+++ b/Económico-laboral/INE_tabulado_cgt_sexo_regional (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria Victoria\Dropbox\MVC 12 2016\Data Intelligent\Género\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvcma\Dropbox\Diseño DATA's\DATA-GENERO\Económico-laboral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E1A2A78-3BF9-46EA-9049-2E5BAA1F59C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52064D9-4545-406C-8CB7-D83249A944DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Índice" sheetId="4" r:id="rId1"/>
@@ -287,9 +287,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -456,10 +456,10 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -470,7 +470,7 @@
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -479,13 +479,13 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,7 +511,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -526,16 +526,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -888,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1121,7 +1121,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H7" sqref="H7:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1358,7 +1358,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H7" sqref="H7:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1595,7 +1595,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H7" sqref="H7:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1832,7 +1832,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H7" sqref="H7:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2069,7 +2069,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H7" sqref="H7:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2306,7 +2306,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H7" sqref="H7:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2542,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2780,7 +2780,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H7" sqref="H7:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3018,7 +3018,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H7" sqref="H7:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3255,7 +3255,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H7" sqref="H7:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3492,7 +3492,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H7" sqref="H7:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3729,7 +3729,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H7" sqref="H7:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3966,7 +3966,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H7" sqref="H7:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4203,7 +4203,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4440,7 +4440,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
